--- a/data/Rivers/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
+++ b/data/Rivers/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -761,7 +761,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -800,7 +800,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -835,7 +835,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -870,7 +870,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -905,7 +905,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -944,7 +944,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -979,7 +979,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4517,7 +4517,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5639,7 +5639,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6642,7 +6642,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6759,7 +6759,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6802,7 +6802,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6884,7 +6884,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7091,7 +7091,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7290,7 +7290,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8106,7 +8106,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8352,7 +8352,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8395,7 +8395,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8477,7 +8477,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8637,7 +8637,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8965,7 +8965,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9207,7 +9207,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9250,7 +9250,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9293,7 +9293,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9375,7 +9375,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9453,7 +9453,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9535,7 +9535,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9742,7 +9742,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9785,7 +9785,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -9984,7 +9984,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -10148,7 +10148,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -10394,7 +10394,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10554,7 +10554,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10597,7 +10597,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -10683,7 +10683,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10722,7 +10722,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10800,7 +10800,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -10882,7 +10882,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -10960,7 +10960,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -11046,7 +11046,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -11089,7 +11089,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -11167,7 +11167,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -11206,7 +11206,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -11249,7 +11249,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -11288,7 +11288,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -11409,7 +11409,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -11495,7 +11495,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11538,7 +11538,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -11577,7 +11577,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -11616,7 +11616,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11655,7 +11655,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11698,7 +11698,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -11780,7 +11780,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11858,7 +11858,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -12065,7 +12065,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -12104,7 +12104,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -12147,7 +12147,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -12186,7 +12186,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -12229,7 +12229,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -12307,7 +12307,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -12393,7 +12393,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -12436,7 +12436,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -12475,7 +12475,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -12514,7 +12514,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -12553,7 +12553,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -12596,7 +12596,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -12635,7 +12635,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -12678,7 +12678,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -12756,7 +12756,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -12799,7 +12799,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -12842,7 +12842,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -12924,7 +12924,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -12963,7 +12963,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -13002,7 +13002,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -13045,7 +13045,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -13084,7 +13084,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -13127,7 +13127,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -13205,7 +13205,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -13248,7 +13248,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -13291,7 +13291,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -13334,7 +13334,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -13373,7 +13373,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -13451,7 +13451,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -13494,7 +13494,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -13533,7 +13533,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -13654,7 +13654,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -13697,7 +13697,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -13740,7 +13740,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -13900,7 +13900,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -13943,7 +13943,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -13986,7 +13986,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -14025,7 +14025,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -14068,7 +14068,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -14146,7 +14146,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -14189,7 +14189,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -14232,7 +14232,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -14275,7 +14275,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -14314,7 +14314,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -14353,7 +14353,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -14474,7 +14474,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -14517,7 +14517,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -14595,7 +14595,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -14638,7 +14638,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -14681,7 +14681,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -14724,7 +14724,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -14763,7 +14763,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -14802,7 +14802,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -14884,7 +14884,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -14923,7 +14923,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -14966,7 +14966,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -15044,7 +15044,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -15130,7 +15130,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -15173,7 +15173,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -15212,7 +15212,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -15251,7 +15251,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -15290,7 +15290,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -15372,7 +15372,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -15415,7 +15415,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -15493,7 +15493,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -15536,7 +15536,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -15579,7 +15579,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -15622,7 +15622,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -15700,7 +15700,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -15739,7 +15739,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -15782,7 +15782,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -15821,7 +15821,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -15864,7 +15864,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -15942,7 +15942,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -15985,7 +15985,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -16071,7 +16071,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -16110,7 +16110,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -16149,7 +16149,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -16188,7 +16188,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -16231,7 +16231,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -16274,7 +16274,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -16313,7 +16313,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -16356,7 +16356,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -16434,7 +16434,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -16477,7 +16477,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -16520,7 +16520,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -16563,7 +16563,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -16602,7 +16602,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -16641,7 +16641,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -16680,7 +16680,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -16766,7 +16766,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -16805,7 +16805,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -16848,7 +16848,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -16926,7 +16926,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -16969,7 +16969,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -17012,7 +17012,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -17055,7 +17055,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -17094,7 +17094,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -17133,7 +17133,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -17215,7 +17215,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -17258,7 +17258,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -17297,7 +17297,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -17340,7 +17340,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -17418,7 +17418,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -17461,7 +17461,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -17504,7 +17504,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -17547,7 +17547,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -17625,7 +17625,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -17664,7 +17664,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -17707,7 +17707,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -17789,7 +17789,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -17867,7 +17867,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -17910,7 +17910,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -17953,7 +17953,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -17996,7 +17996,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -18035,7 +18035,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -18074,7 +18074,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -18113,7 +18113,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -18156,7 +18156,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -18195,7 +18195,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -18238,7 +18238,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -18316,7 +18316,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -18359,7 +18359,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -18445,7 +18445,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -18484,7 +18484,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -18523,7 +18523,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -18562,7 +18562,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -18605,7 +18605,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -18644,7 +18644,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -18687,7 +18687,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C459" s="2" t="n">
@@ -18765,7 +18765,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -18894,7 +18894,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -18933,7 +18933,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -18972,7 +18972,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C466" s="2" t="n">
@@ -19011,7 +19011,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C467" s="2" t="n">
@@ -19050,7 +19050,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -19085,7 +19085,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -19124,7 +19124,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C470" s="2" t="n">
@@ -19163,7 +19163,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -19202,7 +19202,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -19241,7 +19241,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -19276,7 +19276,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -19311,7 +19311,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
@@ -19346,7 +19346,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
@@ -19389,7 +19389,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C478" s="2" t="n">
@@ -19471,7 +19471,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C479" s="2" t="n">
@@ -19514,7 +19514,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C483" s="2" t="n">
@@ -19678,7 +19678,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C484" s="2" t="n">
@@ -19721,7 +19721,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
@@ -19760,7 +19760,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
@@ -19799,7 +19799,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C487" s="2" t="n">
@@ -19838,7 +19838,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C488" s="2" t="n">
@@ -19881,7 +19881,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C489" s="2" t="n">
@@ -19920,7 +19920,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C490" s="2" t="n">
@@ -19963,7 +19963,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C491" s="2" t="n">
@@ -20041,7 +20041,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C493" s="2" t="n">
@@ -20084,7 +20084,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
@@ -20127,7 +20127,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C495" s="2" t="n">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C496" s="2" t="n">
@@ -20209,7 +20209,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C497" s="2" t="n">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C498" s="2" t="n">
@@ -20287,7 +20287,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C499" s="2" t="n">
@@ -20330,7 +20330,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C500" s="2" t="n">
@@ -20369,7 +20369,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C501" s="2" t="n">
@@ -20412,7 +20412,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C502" s="2" t="n">
@@ -20490,7 +20490,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C504" s="2" t="n">
@@ -20533,7 +20533,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C505" s="2" t="n">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C506" s="2" t="n">
@@ -20619,7 +20619,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C507" s="2" t="n">
@@ -20658,7 +20658,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C508" s="2" t="n">
@@ -20697,7 +20697,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C509" s="2" t="n">
@@ -20736,7 +20736,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C510" s="2" t="n">
@@ -20779,7 +20779,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C511" s="2" t="n">
@@ -20822,7 +20822,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
@@ -20861,7 +20861,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C513" s="2" t="n">
@@ -20904,7 +20904,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C514" s="2" t="n">
@@ -20982,7 +20982,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C516" s="2" t="n">
@@ -21025,7 +21025,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C517" s="2" t="n">
@@ -21068,7 +21068,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C518" s="2" t="n">
@@ -21111,7 +21111,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
@@ -21150,7 +21150,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C520" s="2" t="n">
@@ -21189,7 +21189,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C521" s="2" t="n">
@@ -21228,7 +21228,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C522" s="2" t="n">
@@ -21271,7 +21271,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C523" s="2" t="n">
@@ -21310,7 +21310,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C524" s="2" t="n">
@@ -21353,7 +21353,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C525" s="2" t="n">
@@ -21431,7 +21431,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
@@ -21474,7 +21474,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C528" s="2" t="n">
@@ -21517,7 +21517,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C529" s="2" t="n">
@@ -21560,7 +21560,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C530" s="2" t="n">
@@ -21599,7 +21599,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
@@ -21638,7 +21638,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
@@ -21677,7 +21677,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C533" s="2" t="n">
@@ -21720,7 +21720,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C534" s="2" t="n">
@@ -21763,7 +21763,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C535" s="2" t="n">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C536" s="2" t="n">
@@ -21845,7 +21845,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C537" s="2" t="n">
@@ -21923,7 +21923,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C539" s="2" t="n">
@@ -21966,7 +21966,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C541" s="2" t="n">
@@ -22052,7 +22052,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C542" s="2" t="n">
@@ -22091,7 +22091,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C543" s="2" t="n">
@@ -22130,7 +22130,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C544" s="2" t="n">
@@ -22169,7 +22169,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C545" s="2" t="n">
@@ -22212,7 +22212,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C546" s="2" t="n">
@@ -22255,7 +22255,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C547" s="2" t="n">
@@ -22294,7 +22294,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C548" s="2" t="n">
@@ -22337,7 +22337,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C549" s="2" t="n">
@@ -22415,7 +22415,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C551" s="2" t="n">
@@ -22458,7 +22458,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C552" s="2" t="n">
@@ -22501,7 +22501,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C553" s="2" t="n">
@@ -22544,7 +22544,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C554" s="2" t="n">
@@ -22583,7 +22583,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C555" s="2" t="n">
@@ -22622,7 +22622,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C556" s="2" t="n">
@@ -22661,7 +22661,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C557" s="2" t="n">
@@ -22704,7 +22704,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C558" s="2" t="n">
@@ -22747,7 +22747,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C559" s="2" t="n">
@@ -22786,7 +22786,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
@@ -22829,7 +22829,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C561" s="2" t="n">
@@ -22907,7 +22907,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C563" s="2" t="n">
@@ -22950,7 +22950,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C564" s="2" t="n">
@@ -22993,7 +22993,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C565" s="2" t="n">
@@ -23036,7 +23036,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C566" s="2" t="n">
@@ -23075,7 +23075,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C567" s="2" t="n">
@@ -23114,7 +23114,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C568" s="2" t="n">
@@ -23153,7 +23153,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C569" s="2" t="n">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C570" s="2" t="n">
@@ -23235,7 +23235,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C571" s="2" t="n">
@@ -23278,7 +23278,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C572" s="2" t="n">
@@ -23356,7 +23356,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C574" s="2" t="n">
@@ -23399,7 +23399,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C575" s="2" t="n">
@@ -23442,7 +23442,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
@@ -23485,7 +23485,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C577" s="2" t="n">
@@ -23524,7 +23524,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C578" s="2" t="n">
@@ -23563,7 +23563,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C579" s="2" t="n">
@@ -23602,7 +23602,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C580" s="2" t="n">
@@ -23645,7 +23645,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C581" s="2" t="n">
@@ -23684,7 +23684,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C582" s="2" t="n">
@@ -23727,7 +23727,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C583" s="2" t="n">
@@ -23805,7 +23805,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C585" s="2" t="n">
@@ -23848,7 +23848,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C586" s="2" t="n">
@@ -23891,7 +23891,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C587" s="2" t="n">
@@ -23934,7 +23934,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C588" s="2" t="n">
@@ -23973,7 +23973,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C589" s="2" t="n">
@@ -24012,7 +24012,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C590" s="2" t="n">
@@ -24051,7 +24051,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C591" s="2" t="n">
@@ -24094,7 +24094,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C592" s="2" t="n">
@@ -24137,7 +24137,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C593" s="2" t="n">
@@ -24176,7 +24176,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C594" s="2" t="n">
@@ -24219,7 +24219,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C595" s="2" t="n">
@@ -24297,7 +24297,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C597" s="2" t="n">
@@ -24340,7 +24340,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C598" s="2" t="n">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C599" s="2" t="n">
@@ -24426,7 +24426,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C600" s="2" t="n">
@@ -24465,7 +24465,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C601" s="2" t="n">
@@ -24504,7 +24504,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C602" s="2" t="n">
@@ -24543,7 +24543,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C603" s="2" t="n">
@@ -24586,7 +24586,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C604" s="2" t="n">
@@ -24625,7 +24625,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C605" s="2" t="n">
@@ -24668,7 +24668,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C606" s="2" t="n">
@@ -24746,7 +24746,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C608" s="2" t="n">
@@ -24789,7 +24789,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C609" s="2" t="n">
@@ -24832,7 +24832,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C610" s="2" t="n">
@@ -24875,7 +24875,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C611" s="2" t="n">
@@ -24914,7 +24914,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C612" s="2" t="n">
@@ -24953,7 +24953,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C613" s="2" t="n">
@@ -24992,7 +24992,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C614" s="2" t="n">
@@ -25035,7 +25035,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C615" s="2" t="n">
@@ -25074,7 +25074,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C616" s="2" t="n">
@@ -25117,7 +25117,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C617" s="2" t="n">
@@ -25195,7 +25195,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C619" s="2" t="n">
@@ -25238,7 +25238,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C620" s="2" t="n">
@@ -25281,7 +25281,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C621" s="2" t="n">
@@ -25324,7 +25324,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C622" s="2" t="n">
@@ -25363,7 +25363,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C623" s="2" t="n">
@@ -25402,7 +25402,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C624" s="2" t="n">
@@ -25441,7 +25441,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C625" s="2" t="n">
@@ -25484,7 +25484,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C626" s="2" t="n">
@@ -25527,7 +25527,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
@@ -25566,7 +25566,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C628" s="2" t="n">
@@ -25609,7 +25609,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C629" s="2" t="n">
@@ -25687,7 +25687,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C631" s="2" t="n">
@@ -25730,7 +25730,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C632" s="2" t="n">
@@ -25773,7 +25773,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C633" s="2" t="n">
@@ -25816,7 +25816,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C634" s="2" t="n">
@@ -25855,7 +25855,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C635" s="2" t="n">
@@ -25894,7 +25894,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C636" s="2" t="n">
@@ -25933,7 +25933,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C637" s="2" t="n">
@@ -25976,7 +25976,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C638" s="2" t="n">
@@ -26019,7 +26019,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C639" s="2" t="n">
@@ -26058,7 +26058,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C640" s="2" t="n">
@@ -26101,7 +26101,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C641" s="2" t="n">
@@ -26179,7 +26179,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C643" s="2" t="n">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C644" s="2" t="n">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C645" s="2" t="n">
@@ -26308,7 +26308,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C646" s="2" t="n">
@@ -26347,7 +26347,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C647" s="2" t="n">
@@ -26386,7 +26386,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C648" s="2" t="n">
@@ -26425,7 +26425,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C649" s="2" t="n">
@@ -26468,7 +26468,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C650" s="2" t="n">
@@ -26511,7 +26511,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C651" s="2" t="n">
@@ -26550,7 +26550,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C652" s="2" t="n">
@@ -26593,7 +26593,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C653" s="2" t="n">
@@ -26671,7 +26671,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C655" s="2" t="n">
@@ -26714,7 +26714,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C656" s="2" t="n">
@@ -26757,7 +26757,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C657" s="2" t="n">
@@ -26800,7 +26800,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C658" s="2" t="n">
@@ -26839,7 +26839,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C659" s="2" t="n">
@@ -26878,7 +26878,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C660" s="2" t="n">
@@ -26917,7 +26917,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C661" s="2" t="n">
@@ -26960,7 +26960,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C662" s="2" t="n">
@@ -27003,7 +27003,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C663" s="2" t="n">
@@ -27042,7 +27042,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C664" s="2" t="n">
@@ -27085,7 +27085,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C665" s="2" t="n">
@@ -27163,7 +27163,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C667" s="2" t="n">
@@ -27206,7 +27206,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C668" s="2" t="n">
@@ -27249,7 +27249,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C669" s="2" t="n">
@@ -27292,7 +27292,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C670" s="2" t="n">
@@ -27331,7 +27331,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C671" s="2" t="n">
@@ -27370,7 +27370,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C672" s="2" t="n">
@@ -27409,7 +27409,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C673" s="2" t="n">
@@ -27452,7 +27452,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C674" s="2" t="n">
@@ -27491,7 +27491,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C675" s="2" t="n">
@@ -27534,7 +27534,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C676" s="2" t="n">
@@ -27612,7 +27612,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C678" s="2" t="n">
@@ -27655,7 +27655,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C679" s="2" t="n">
@@ -27698,7 +27698,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C680" s="2" t="n">
@@ -27741,7 +27741,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C681" s="2" t="n">
@@ -27780,7 +27780,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C682" s="2" t="n">
@@ -27819,7 +27819,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C683" s="2" t="n">
@@ -27858,7 +27858,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C684" s="2" t="n">
@@ -27901,7 +27901,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C685" s="2" t="n">
@@ -27944,7 +27944,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C686" s="2" t="n">
@@ -27983,7 +27983,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C687" s="2" t="n">
@@ -28026,7 +28026,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C688" s="2" t="n">
@@ -28104,7 +28104,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C690" s="2" t="n">
@@ -28147,7 +28147,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C691" s="2" t="n">
@@ -28190,7 +28190,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C692" s="2" t="n">
@@ -28233,7 +28233,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C693" s="2" t="n">
@@ -28272,7 +28272,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C694" s="2" t="n">
@@ -28311,7 +28311,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C695" s="2" t="n">
@@ -28350,7 +28350,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C696" s="2" t="n">
@@ -28393,7 +28393,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C697" s="2" t="n">
@@ -28436,7 +28436,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C698" s="2" t="n">
@@ -28475,7 +28475,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C699" s="2" t="n">
@@ -28518,7 +28518,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C700" s="2" t="n">
@@ -28596,7 +28596,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C702" s="2" t="n">
@@ -28639,7 +28639,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C703" s="2" t="n">
@@ -28682,7 +28682,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C704" s="2" t="n">
@@ -28725,7 +28725,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C705" s="2" t="n">
@@ -28764,7 +28764,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C706" s="2" t="n">
@@ -28803,7 +28803,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C707" s="2" t="n">
@@ -28842,7 +28842,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C708" s="2" t="n">
@@ -28885,7 +28885,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C709" s="2" t="n">
@@ -28924,7 +28924,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C710" s="2" t="n">
@@ -28967,7 +28967,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C711" s="2" t="n">
@@ -29045,7 +29045,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C713" s="2" t="n">
@@ -29088,7 +29088,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C714" s="2" t="n">
@@ -29131,7 +29131,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C715" s="2" t="n">
@@ -29174,7 +29174,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C716" s="2" t="n">
@@ -29213,7 +29213,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C717" s="2" t="n">
@@ -29252,7 +29252,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C718" s="2" t="n">
@@ -29291,7 +29291,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C719" s="2" t="n">
@@ -29334,7 +29334,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C720" s="2" t="n">
@@ -29377,7 +29377,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C721" s="2" t="n">
@@ -29416,7 +29416,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C722" s="2" t="n">
@@ -29459,7 +29459,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C723" s="2" t="n">
@@ -29537,7 +29537,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C725" s="2" t="n">
@@ -29580,7 +29580,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C726" s="2" t="n">
@@ -29623,7 +29623,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C727" s="2" t="n">
@@ -29666,7 +29666,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C728" s="2" t="n">
@@ -29705,7 +29705,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C729" s="2" t="n">
@@ -29744,7 +29744,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C730" s="2" t="n">
@@ -29783,7 +29783,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C731" s="2" t="n">
@@ -29826,7 +29826,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C732" s="2" t="n">
@@ -29865,7 +29865,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C733" s="2" t="n">
@@ -29908,7 +29908,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C734" s="2" t="n">
@@ -29986,7 +29986,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C736" s="2" t="n">
@@ -30029,7 +30029,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C737" s="2" t="n">
@@ -30072,7 +30072,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C738" s="2" t="n">
@@ -30115,7 +30115,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C739" s="2" t="n">
@@ -30154,7 +30154,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C740" s="2" t="n">
@@ -30193,7 +30193,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C741" s="2" t="n">
@@ -30232,7 +30232,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C742" s="2" t="n">
@@ -30275,7 +30275,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C743" s="2" t="n">
@@ -30318,7 +30318,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C744" s="2" t="n">
@@ -30357,7 +30357,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C745" s="2" t="n">
@@ -30400,7 +30400,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C746" s="2" t="n">
@@ -30478,7 +30478,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C748" s="2" t="n">
@@ -30521,7 +30521,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C749" s="2" t="n">
@@ -30564,7 +30564,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C750" s="2" t="n">
@@ -30607,7 +30607,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C751" s="2" t="n">
@@ -30646,7 +30646,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C752" s="2" t="n">
@@ -30685,7 +30685,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C753" s="2" t="n">
@@ -30724,7 +30724,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C754" s="2" t="n">
@@ -30767,7 +30767,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C755" s="2" t="n">
@@ -30810,7 +30810,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C756" s="2" t="n">
@@ -30849,7 +30849,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C757" s="2" t="n">
@@ -30892,7 +30892,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C758" s="2" t="n">
@@ -30970,7 +30970,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C760" s="2" t="n">
@@ -31013,7 +31013,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C761" s="2" t="n">
@@ -31056,7 +31056,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C762" s="2" t="n">
@@ -31099,7 +31099,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C763" s="2" t="n">
@@ -31138,7 +31138,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C764" s="2" t="n">
@@ -31177,7 +31177,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C765" s="2" t="n">
@@ -31216,7 +31216,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C766" s="2" t="n">
@@ -31259,7 +31259,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C767" s="2" t="n">
@@ -31302,7 +31302,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C768" s="2" t="n">
@@ -31341,7 +31341,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C769" s="2" t="n">
@@ -31384,7 +31384,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C770" s="2" t="n">
@@ -31462,7 +31462,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C772" s="2" t="n">
@@ -31505,7 +31505,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C773" s="2" t="n">
@@ -31548,7 +31548,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C774" s="2" t="n">
@@ -31591,7 +31591,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C775" s="2" t="n">
@@ -31630,7 +31630,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C776" s="2" t="n">
@@ -31669,7 +31669,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C777" s="2" t="n">
@@ -31708,7 +31708,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C778" s="2" t="n">
@@ -31751,7 +31751,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C779" s="2" t="n">
@@ -31794,7 +31794,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C780" s="2" t="n">
@@ -31833,7 +31833,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C781" s="2" t="n">
@@ -31876,7 +31876,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C782" s="2" t="n">
@@ -31954,7 +31954,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C784" s="2" t="n">
@@ -31997,7 +31997,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C785" s="2" t="n">
@@ -32040,7 +32040,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C786" s="2" t="n">
@@ -32083,7 +32083,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C787" s="2" t="n">
@@ -32122,7 +32122,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C788" s="2" t="n">
@@ -32161,7 +32161,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C789" s="2" t="n">
@@ -32200,7 +32200,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C790" s="2" t="n">
@@ -32243,7 +32243,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C791" s="2" t="n">
@@ -32286,7 +32286,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C792" s="2" t="n">
@@ -32325,7 +32325,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C793" s="2" t="n">
@@ -32368,7 +32368,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C794" s="2" t="n">
@@ -32446,7 +32446,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C796" s="2" t="n">
@@ -32489,7 +32489,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C797" s="2" t="n">
@@ -32532,7 +32532,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C798" s="2" t="n">
@@ -32575,7 +32575,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C799" s="2" t="n">
@@ -32614,7 +32614,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C800" s="2" t="n">
@@ -32653,7 +32653,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C801" s="2" t="n">
